--- a/Results/Calculation/plsa-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Calculation/plsa-partial-ner-elmo_ori-money.xlsx
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2">
         <v>162</v>
@@ -441,16 +441,16 @@
         <v>149</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>0.45</v>
+        <v>0.4562043795620438</v>
       </c>
       <c r="G2">
-        <v>0.82</v>
+        <v>0.8278145695364238</v>
       </c>
       <c r="H2">
-        <v>0.58</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="I2">
         <v>0.62</v>
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C3">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F3">
-        <v>0.72</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="G3">
-        <v>0.73</v>
+        <v>0.7557603686635944</v>
       </c>
       <c r="H3">
-        <v>0.72</v>
+        <v>0.7370786516853933</v>
       </c>
       <c r="I3">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,25 +490,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C4">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>0.92</v>
+        <v>0.910958904109589</v>
       </c>
       <c r="G4">
-        <v>0.86</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="H4">
-        <v>0.89</v>
+        <v>0.8866666666666667</v>
       </c>
       <c r="I4">
         <v>0.93</v>
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>0.75</v>
+        <v>0.7557251908396947</v>
       </c>
       <c r="G5">
-        <v>0.78</v>
+        <v>0.7615384615384615</v>
       </c>
       <c r="H5">
-        <v>0.76</v>
+        <v>0.7586206896551725</v>
       </c>
       <c r="I5">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Calculation/plsa-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Calculation/plsa-partial-ner-elmo_ori-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C2">
-        <v>162</v>
+        <v>264</v>
       </c>
       <c r="D2">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F2">
-        <v>0.4562043795620438</v>
+        <v>0.6948051948051948</v>
       </c>
       <c r="G2">
-        <v>0.8278145695364238</v>
+        <v>0.7086092715231788</v>
       </c>
       <c r="H2">
-        <v>0.5882352941176471</v>
+        <v>0.7016393442622951</v>
       </c>
       <c r="I2">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C3">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="D3">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>0.7192982456140351</v>
+        <v>0.643312101910828</v>
       </c>
       <c r="G3">
-        <v>0.7557603686635944</v>
+        <v>0.9308755760368663</v>
       </c>
       <c r="H3">
-        <v>0.7370786516853933</v>
+        <v>0.760828625235405</v>
       </c>
       <c r="I3">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>0.910958904109589</v>
+        <v>0.903448275862069</v>
       </c>
       <c r="G4">
-        <v>0.8636363636363636</v>
+        <v>0.8506493506493507</v>
       </c>
       <c r="H4">
-        <v>0.8866666666666667</v>
+        <v>0.8762541806020068</v>
       </c>
       <c r="I4">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.7557251908396947</v>
+        <v>0.9175257731958762</v>
       </c>
       <c r="G5">
-        <v>0.7615384615384615</v>
+        <v>0.6846153846153846</v>
       </c>
       <c r="H5">
-        <v>0.7586206896551725</v>
+        <v>0.7841409691629956</v>
       </c>
       <c r="I5">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
